--- a/tc template_1.xlsx
+++ b/tc template_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9405"/>
+    <workbookView windowWidth="20385" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,7 +65,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,13 +86,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -94,6 +94,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -102,84 +110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +140,73 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,43 +217,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,138 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,41 +420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,13 +444,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +492,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,136 +531,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,10 +979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1020,6 +1023,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tc template_1.xlsx
+++ b/tc template_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>slnr</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>t001</t>
+  </si>
 </sst>
 </file>
 
@@ -51,9 +54,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +76,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,6 +97,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -112,6 +130,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +160,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -141,68 +175,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +220,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,103 +268,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,48 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +411,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,9 +440,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,17 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,47 +511,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,130 +534,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +985,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1023,9 +1026,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:3">
